--- a/Intelligence System - Security/_internal/Brasil/telas/gerador_mapas/mapa.xlsx
+++ b/Intelligence System - Security/_internal/Brasil/telas/gerador_mapas/mapa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiamorei\PycharmProjects\Inteligencia e Investigações\SINISTROS\Brasil\telas\gerador_mapas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F646FBFA-0757-430B-B620-BED081B53173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B965C93-1AD1-4B18-BB33-A47B4CB1EA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Data/Hora</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Tipo</t>
+  </si>
+  <si>
+    <t>NOME_PESSOA</t>
   </si>
 </sst>
 </file>
@@ -459,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,10 +478,11 @@
     <col min="5" max="5" width="10.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -500,8 +504,11 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -523,9 +530,9 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
